--- a/TestData/HammerslyStratPetrophysics.xlsx
+++ b/TestData/HammerslyStratPetrophysics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Loop3DGKM\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6B4F1CC7-48D8-4484-B8E8-92D07C2D3AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720978AF-0F88-4E11-8AA3-C7034F72A231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="570" windowWidth="20175" windowHeight="11895"/>
+    <workbookView xWindow="2340" yWindow="1005" windowWidth="21315" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HammerslyStratPetrophysics" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -975,7 +975,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1287,10 +1287,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -1299,10 +1299,18 @@
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15" max="21" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="11" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="15.42578125" style="3" customWidth="1"/>
+    <col min="20" max="21" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2340,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
